--- a/team_specific_matrix/Providence_A.xlsx
+++ b/team_specific_matrix/Providence_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2028985507246377</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C2">
-        <v>0.5555555555555556</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01932367149758454</v>
+        <v>0.02405498281786942</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.106280193236715</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1159420289855072</v>
+        <v>0.1099656357388316</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02362204724409449</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="C3">
-        <v>0.06299212598425197</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03149606299212598</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6850393700787402</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1968503937007874</v>
+        <v>0.1976047904191617</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7647058823529411</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1764705882352941</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06936416184971098</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01734104046242774</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="E6">
-        <v>0.005780346820809248</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="F6">
-        <v>0.06936416184971098</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2658959537572254</v>
+        <v>0.2672413793103448</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0115606936416185</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1213872832369942</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="R6">
-        <v>0.08670520231213873</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="S6">
-        <v>0.3526011560693642</v>
+        <v>0.3706896551724138</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09482758620689655</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02586206896551724</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05172413793103448</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08620689655172414</v>
+        <v>0.06918238993710692</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01724137931034483</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1896551724137931</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="R7">
-        <v>0.05172413793103448</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="S7">
-        <v>0.4827586206896552</v>
+        <v>0.4654088050314465</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09217877094972067</v>
+        <v>0.1010989010989011</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01396648044692737</v>
+        <v>0.01318681318681319</v>
       </c>
       <c r="E8">
-        <v>0.002793296089385475</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="F8">
-        <v>0.05307262569832402</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09497206703910614</v>
+        <v>0.1032967032967033</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01396648044692737</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2150837988826816</v>
+        <v>0.2065934065934066</v>
       </c>
       <c r="R8">
-        <v>0.111731843575419</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="S8">
-        <v>0.4022346368715084</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1014492753623188</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01449275362318841</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06521739130434782</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07971014492753623</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01449275362318841</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1594202898550725</v>
+        <v>0.1597633136094675</v>
       </c>
       <c r="R9">
-        <v>0.1014492753623188</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="S9">
-        <v>0.463768115942029</v>
+        <v>0.4497041420118343</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09839572192513368</v>
+        <v>0.1048</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02245989304812834</v>
+        <v>0.0216</v>
       </c>
       <c r="E10">
-        <v>0.00213903743315508</v>
+        <v>0.0016</v>
       </c>
       <c r="F10">
-        <v>0.07700534759358289</v>
+        <v>0.08</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09625668449197861</v>
+        <v>0.1104</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01818181818181818</v>
+        <v>0.0176</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1946524064171123</v>
+        <v>0.1952</v>
       </c>
       <c r="R10">
-        <v>0.09625668449197861</v>
+        <v>0.096</v>
       </c>
       <c r="S10">
-        <v>0.3946524064171123</v>
+        <v>0.3728</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.135678391959799</v>
+        <v>0.1245283018867925</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1005025125628141</v>
+        <v>0.09056603773584905</v>
       </c>
       <c r="K11">
-        <v>0.2060301507537688</v>
+        <v>0.1962264150943396</v>
       </c>
       <c r="L11">
-        <v>0.542713567839196</v>
+        <v>0.5773584905660377</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01507537688442211</v>
+        <v>0.01132075471698113</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6754385964912281</v>
+        <v>0.70625</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2456140350877193</v>
+        <v>0.21875</v>
       </c>
       <c r="K12">
-        <v>0.008771929824561403</v>
+        <v>0.00625</v>
       </c>
       <c r="L12">
-        <v>0.02631578947368421</v>
+        <v>0.03125</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04385964912280702</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5882352941176471</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3529411764705883</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04242424242424243</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1454545454545454</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="I15">
-        <v>0.09090909090909091</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="J15">
-        <v>0.3696969696969697</v>
+        <v>0.3594470046082949</v>
       </c>
       <c r="K15">
-        <v>0.0303030303030303</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.006060606060606061</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="O15">
-        <v>0.06666666666666667</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2484848484848485</v>
+        <v>0.2396313364055299</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1879699248120301</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="I16">
-        <v>0.05263157894736842</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="J16">
-        <v>0.4360902255639098</v>
+        <v>0.4340659340659341</v>
       </c>
       <c r="K16">
-        <v>0.09022556390977443</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03007518796992481</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04511278195488722</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03283582089552239</v>
+        <v>0.03044496487119438</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1970149253731343</v>
+        <v>0.1920374707259953</v>
       </c>
       <c r="I17">
-        <v>0.08656716417910448</v>
+        <v>0.08430913348946135</v>
       </c>
       <c r="J17">
-        <v>0.4119402985074627</v>
+        <v>0.414519906323185</v>
       </c>
       <c r="K17">
-        <v>0.08955223880597014</v>
+        <v>0.09133489461358314</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02686567164179104</v>
+        <v>0.0234192037470726</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.02686567164179104</v>
+        <v>0.03044496487119438</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1283582089552239</v>
+        <v>0.1334894613583138</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01219512195121951</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.274390243902439</v>
+        <v>0.2629107981220657</v>
       </c>
       <c r="I18">
-        <v>0.06097560975609756</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="J18">
-        <v>0.3109756097560976</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K18">
-        <v>0.07926829268292683</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01829268292682927</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08536585365853659</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1585365853658537</v>
+        <v>0.1596244131455399</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02095808383233533</v>
+        <v>0.01857585139318885</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2035928143712575</v>
+        <v>0.1996904024767802</v>
       </c>
       <c r="I19">
-        <v>0.07784431137724551</v>
+        <v>0.07198142414860681</v>
       </c>
       <c r="J19">
-        <v>0.3702594810379242</v>
+        <v>0.3792569659442724</v>
       </c>
       <c r="K19">
-        <v>0.09481037924151696</v>
+        <v>0.09674922600619196</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01896207584830339</v>
+        <v>0.01625386996904025</v>
       </c>
       <c r="N19">
-        <v>0.000998003992015968</v>
+        <v>0.001547987616099071</v>
       </c>
       <c r="O19">
-        <v>0.07684630738522955</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1357285429141717</v>
+        <v>0.1369969040247678</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Providence_A.xlsx
+++ b/team_specific_matrix/Providence_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2061855670103093</v>
+        <v>0.2091503267973856</v>
       </c>
       <c r="C2">
-        <v>0.5257731958762887</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02405498281786942</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.134020618556701</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1099656357388316</v>
+        <v>0.107843137254902</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02395209580838323</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="C3">
-        <v>0.05389221556886228</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03592814371257485</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.688622754491018</v>
+        <v>0.6936416184971098</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1976047904191617</v>
+        <v>0.1907514450867052</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7272727272727273</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2272727272727273</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06465517241379311</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01293103448275862</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="E6">
-        <v>0.004310344827586207</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="F6">
-        <v>0.06465517241379311</v>
+        <v>0.07114624505928854</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2672413793103448</v>
+        <v>0.2687747035573123</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01293103448275862</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1120689655172414</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="R6">
-        <v>0.09051724137931035</v>
+        <v>0.08300395256916997</v>
       </c>
       <c r="S6">
-        <v>0.3706896551724138</v>
+        <v>0.3715415019762846</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1132075471698113</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0440251572327044</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05660377358490566</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06918238993710692</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01886792452830189</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1761006289308176</v>
+        <v>0.1726190476190476</v>
       </c>
       <c r="R7">
-        <v>0.05660377358490566</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="S7">
-        <v>0.4654088050314465</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1010989010989011</v>
+        <v>0.09710743801652892</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01318681318681319</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="E8">
-        <v>0.002197802197802198</v>
+        <v>0.002066115702479339</v>
       </c>
       <c r="F8">
-        <v>0.05494505494505494</v>
+        <v>0.05578512396694215</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1032967032967033</v>
+        <v>0.1012396694214876</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01098901098901099</v>
+        <v>0.01033057851239669</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2065934065934066</v>
+        <v>0.2004132231404959</v>
       </c>
       <c r="R8">
-        <v>0.1076923076923077</v>
+        <v>0.115702479338843</v>
       </c>
       <c r="S8">
-        <v>0.4</v>
+        <v>0.4049586776859504</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08875739644970414</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01183431952662722</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07100591715976332</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1005917159763314</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01775147928994083</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1597633136094675</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="R9">
-        <v>0.1005917159763314</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="S9">
-        <v>0.4497041420118343</v>
+        <v>0.4461538461538462</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1048</v>
+        <v>0.1009796533534288</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0216</v>
+        <v>0.02260738507912585</v>
       </c>
       <c r="E10">
-        <v>0.0016</v>
+        <v>0.001507159005275057</v>
       </c>
       <c r="F10">
-        <v>0.08</v>
+        <v>0.07912584777694047</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1104</v>
+        <v>0.1092690278824416</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0176</v>
+        <v>0.01808590806330068</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1952</v>
+        <v>0.1921627731725697</v>
       </c>
       <c r="R10">
-        <v>0.096</v>
+        <v>0.1002260738507913</v>
       </c>
       <c r="S10">
-        <v>0.3728</v>
+        <v>0.3760361718161266</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1245283018867925</v>
+        <v>0.1223021582733813</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09056603773584905</v>
+        <v>0.08992805755395683</v>
       </c>
       <c r="K11">
-        <v>0.1962264150943396</v>
+        <v>0.1942446043165468</v>
       </c>
       <c r="L11">
-        <v>0.5773584905660377</v>
+        <v>0.5827338129496403</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01132075471698113</v>
+        <v>0.01079136690647482</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.70625</v>
+        <v>0.7100591715976331</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.21875</v>
+        <v>0.2189349112426036</v>
       </c>
       <c r="K12">
-        <v>0.00625</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="L12">
-        <v>0.03125</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0375</v>
+        <v>0.03550295857988166</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5641025641025641</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3846153846153846</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05128205128205128</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03686635944700461</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1612903225806452</v>
+        <v>0.1659574468085106</v>
       </c>
       <c r="I15">
-        <v>0.08755760368663594</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="J15">
-        <v>0.3594470046082949</v>
+        <v>0.3574468085106383</v>
       </c>
       <c r="K15">
-        <v>0.04147465437788019</v>
+        <v>0.04680851063829787</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.004608294930875576</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="O15">
-        <v>0.06912442396313365</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2396313364055299</v>
+        <v>0.2297872340425532</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01648351648351648</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1648351648351648</v>
+        <v>0.1658031088082902</v>
       </c>
       <c r="I16">
-        <v>0.06043956043956044</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="J16">
-        <v>0.4340659340659341</v>
+        <v>0.4352331606217616</v>
       </c>
       <c r="K16">
-        <v>0.09340659340659341</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02747252747252747</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04945054945054945</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1538461538461539</v>
+        <v>0.1450777202072539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03044496487119438</v>
+        <v>0.02914798206278027</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1920374707259953</v>
+        <v>0.1928251121076233</v>
       </c>
       <c r="I17">
-        <v>0.08430913348946135</v>
+        <v>0.09641255605381166</v>
       </c>
       <c r="J17">
-        <v>0.414519906323185</v>
+        <v>0.4125560538116592</v>
       </c>
       <c r="K17">
-        <v>0.09133489461358314</v>
+        <v>0.08744394618834081</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0234192037470726</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03044496487119438</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1334894613583138</v>
+        <v>0.1278026905829596</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01408450704225352</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2629107981220657</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="I18">
-        <v>0.05633802816901409</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.323404255319149</v>
       </c>
       <c r="K18">
-        <v>0.07981220657276995</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0187793427230047</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07511737089201878</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1596244131455399</v>
+        <v>0.1531914893617021</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01857585139318885</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1996904024767802</v>
+        <v>0.1985454545454546</v>
       </c>
       <c r="I19">
-        <v>0.07198142414860681</v>
+        <v>0.07563636363636364</v>
       </c>
       <c r="J19">
-        <v>0.3792569659442724</v>
+        <v>0.3796363636363637</v>
       </c>
       <c r="K19">
-        <v>0.09674922600619196</v>
+        <v>0.09454545454545454</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01625386996904025</v>
+        <v>0.01527272727272727</v>
       </c>
       <c r="N19">
-        <v>0.001547987616099071</v>
+        <v>0.001454545454545454</v>
       </c>
       <c r="O19">
-        <v>0.07894736842105263</v>
+        <v>0.08072727272727273</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1369969040247678</v>
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Providence_A.xlsx
+++ b/team_specific_matrix/Providence_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2091503267973856</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5196078431372549</v>
+        <v>0.5224358974358975</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0261437908496732</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1372549019607843</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.107843137254902</v>
+        <v>0.108974358974359</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02312138728323699</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="C3">
-        <v>0.05202312138728324</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04046242774566474</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6936416184971098</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1907514450867052</v>
+        <v>0.192090395480226</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05928853754940711</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01185770750988142</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="E6">
-        <v>0.003952569169960474</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="F6">
-        <v>0.07114624505928854</v>
+        <v>0.07307692307692308</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2687747035573123</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0158102766798419</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1146245059288538</v>
+        <v>0.1192307692307692</v>
       </c>
       <c r="R6">
-        <v>0.08300395256916997</v>
+        <v>0.08076923076923077</v>
       </c>
       <c r="S6">
-        <v>0.3715415019762846</v>
+        <v>0.3692307692307693</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1071428571428571</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06547619047619048</v>
+        <v>0.06285714285714286</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07738095238095238</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01785714285714286</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1726190476190476</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R7">
-        <v>0.05952380952380952</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="S7">
-        <v>0.4583333333333333</v>
+        <v>0.4685714285714286</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09710743801652892</v>
+        <v>0.09456740442655935</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01239669421487603</v>
+        <v>0.01207243460764587</v>
       </c>
       <c r="E8">
-        <v>0.002066115702479339</v>
+        <v>0.004024144869215292</v>
       </c>
       <c r="F8">
-        <v>0.05578512396694215</v>
+        <v>0.05835010060362173</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1012396694214876</v>
+        <v>0.1026156941649899</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01033057851239669</v>
+        <v>0.01006036217303823</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2004132231404959</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="R8">
-        <v>0.115702479338843</v>
+        <v>0.1146881287726358</v>
       </c>
       <c r="S8">
-        <v>0.4049586776859504</v>
+        <v>0.4064386317907445</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1128205128205128</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01025641025641026</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08717948717948718</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09230769230769231</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01538461538461539</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1435897435897436</v>
+        <v>0.1464646464646465</v>
       </c>
       <c r="R9">
-        <v>0.09230769230769231</v>
+        <v>0.09595959595959595</v>
       </c>
       <c r="S9">
-        <v>0.4461538461538462</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1009796533534288</v>
+        <v>0.1003636363636364</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02260738507912585</v>
+        <v>0.02181818181818182</v>
       </c>
       <c r="E10">
-        <v>0.001507159005275057</v>
+        <v>0.001454545454545454</v>
       </c>
       <c r="F10">
-        <v>0.07912584777694047</v>
+        <v>0.07636363636363637</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1092690278824416</v>
+        <v>0.1098181818181818</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01808590806330068</v>
+        <v>0.01745454545454546</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1921627731725697</v>
+        <v>0.1949090909090909</v>
       </c>
       <c r="R10">
-        <v>0.1002260738507913</v>
+        <v>0.1003636363636364</v>
       </c>
       <c r="S10">
-        <v>0.3760361718161266</v>
+        <v>0.3774545454545454</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1223021582733813</v>
+        <v>0.1245674740484429</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08992805755395683</v>
+        <v>0.08996539792387544</v>
       </c>
       <c r="K11">
-        <v>0.1942446043165468</v>
+        <v>0.1903114186851211</v>
       </c>
       <c r="L11">
-        <v>0.5827338129496403</v>
+        <v>0.5847750865051903</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01079136690647482</v>
+        <v>0.01038062283737024</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7100591715976331</v>
+        <v>0.7102272727272727</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2189349112426036</v>
+        <v>0.2215909090909091</v>
       </c>
       <c r="K12">
-        <v>0.005917159763313609</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="L12">
-        <v>0.02958579881656805</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03550295857988166</v>
+        <v>0.03409090909090909</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5853658536585366</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3658536585365854</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03404255319148936</v>
+        <v>0.03319502074688797</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1659574468085106</v>
+        <v>0.1701244813278008</v>
       </c>
       <c r="I15">
-        <v>0.09361702127659574</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="J15">
-        <v>0.3574468085106383</v>
+        <v>0.3526970954356847</v>
       </c>
       <c r="K15">
-        <v>0.04680851063829787</v>
+        <v>0.04979253112033195</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="N15">
-        <v>0.00425531914893617</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="O15">
-        <v>0.06808510638297872</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2297872340425532</v>
+        <v>0.2282157676348548</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02072538860103627</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1658031088082902</v>
+        <v>0.1624365482233502</v>
       </c>
       <c r="I16">
-        <v>0.06735751295336788</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="J16">
-        <v>0.4352331606217616</v>
+        <v>0.4365482233502538</v>
       </c>
       <c r="K16">
-        <v>0.08808290155440414</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02590673575129534</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05181347150259067</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1450777202072539</v>
+        <v>0.1472081218274112</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02914798206278027</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1928251121076233</v>
+        <v>0.1918103448275862</v>
       </c>
       <c r="I17">
-        <v>0.09641255605381166</v>
+        <v>0.09267241379310345</v>
       </c>
       <c r="J17">
-        <v>0.4125560538116592</v>
+        <v>0.415948275862069</v>
       </c>
       <c r="K17">
-        <v>0.08744394618834081</v>
+        <v>0.08836206896551724</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02242152466367713</v>
+        <v>0.02370689655172414</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03139013452914798</v>
+        <v>0.03232758620689655</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1278026905829596</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01276595744680851</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2553191489361702</v>
+        <v>0.2520661157024793</v>
       </c>
       <c r="I18">
-        <v>0.06808510638297872</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="J18">
-        <v>0.323404255319149</v>
+        <v>0.3264462809917356</v>
       </c>
       <c r="K18">
-        <v>0.08936170212765958</v>
+        <v>0.08677685950413223</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02553191489361702</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07234042553191489</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1531914893617021</v>
+        <v>0.1570247933884298</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01818181818181818</v>
+        <v>0.01759324419422941</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1985454545454546</v>
+        <v>0.1977480647431386</v>
       </c>
       <c r="I19">
-        <v>0.07563636363636364</v>
+        <v>0.07459535538353272</v>
       </c>
       <c r="J19">
-        <v>0.3796363636363637</v>
+        <v>0.3807178043631246</v>
       </c>
       <c r="K19">
-        <v>0.09454545454545454</v>
+        <v>0.09570724841660802</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01527272727272727</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="N19">
-        <v>0.001454545454545454</v>
+        <v>0.001407459535538353</v>
       </c>
       <c r="O19">
-        <v>0.08072727272727273</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.136</v>
+        <v>0.1358198451794511</v>
       </c>
     </row>
   </sheetData>
